--- a/res/3.4.xlsx
+++ b/res/3.4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="113">
   <si>
     <t>3.4 Abyss Info</t>
   </si>
@@ -25,22 +25,22 @@
     <t>Generated via YSRes</t>
   </si>
   <si>
-    <t>Thorn-Twisted Moon</t>
-  </si>
-  <si>
-    <t>활성 상태인 적의 풀 원소 내성 및 번개 원소 내성이 30% 감소한다. 해당 효과는 활성 상태 종료 후 2초 뒤에 사라진다</t>
-  </si>
-  <si>
-    <t>Verdant Moon</t>
-  </si>
-  <si>
-    <t>일반 공격, 강공격, 낙하 공격, 원소전투 스킬 또는 원소폭발로 적에게 풀 원소 피해를 주면 「무성한 초목」 효과를 획득한다: 캐릭터가 가하는 피해가 8% 증가한다. 해당 효과는 6초 동안 지속되며, 0.1초마다 최대 1회 발동한다. 최대 중첩수: 6회. 지속 시간은 독립적으로 계산한다</t>
-  </si>
-  <si>
-    <t>Luxuriant Moon</t>
-  </si>
-  <si>
-    <t>캐릭터가 적에게 발산 반응 또는 촉진 반응을 발동하면 적의 위치에 충격파를 방출해 고정 피해를 준다. 해당 방식으로 3초당 최대 1회 충격파를 방출할 수 있다</t>
+    <t>丛棘之月</t>
+  </si>
+  <si>
+    <t>处于原激化状态下的敌人的草元素抗性和雷元素抗性降低30%，该效果将在原激化状态结束2秒后移除。</t>
+  </si>
+  <si>
+    <t>郁苍之月</t>
+  </si>
+  <si>
+    <t>角色通过普通攻击、重击、下落攻击、元素战技或元素爆发对敌人造成草元素伤害后，将获得一层「郁苍」效果：角色造成的伤害提升8%。该效果持续6秒，每0.1秒至多触发一次，至多叠加6层，每层独立计时。</t>
+  </si>
+  <si>
+    <t>奋荣之月</t>
+  </si>
+  <si>
+    <t>角色对敌人触发蔓激化、超激化反应时，将在敌人的位置释放冲击波，造成真实伤害。每3秒至多通过这种方式释放一次冲击波。</t>
   </si>
   <si>
     <t>9</t>
@@ -55,298 +55,304 @@
     <t>Buff List:</t>
   </si>
   <si>
-    <t>캐릭터가 발동한 개화 반응으로 생성된 풀 원핵이 폭발하여 가하는 피해와 발화, 만개 반응으로 인한 피해가 각각 125%씩 증가한다</t>
+    <t>角色触发绽放反应产生的草原核在迸发时造成的伤害提升125%，角色触发烈绽放、超绽放反应造成的伤害提升125%。</t>
+  </si>
+  <si>
+    <t>(test)怪物血量提升100%。</t>
   </si>
   <si>
     <t>9-1 60/180/300 Lv.72</t>
   </si>
   <si>
-    <t>포롱 얼음 버섯</t>
-  </si>
-  <si>
-    <t>도금 여단·사막의 물</t>
-  </si>
-  <si>
-    <t>거대 물 슬라임</t>
-  </si>
-  <si>
-    <t>도금 여단·춤추는 칼</t>
-  </si>
-  <si>
-    <t>쭉쭉 불 버섯몬</t>
-  </si>
-  <si>
-    <t>도금 여단·진의 파괴자</t>
-  </si>
-  <si>
-    <t>쭉쭉 바위 버섯몬</t>
-  </si>
-  <si>
-    <t>도금 여단·까마귀 부리 창병</t>
-  </si>
-  <si>
-    <t>빙글 번개 버섯몬</t>
-  </si>
-  <si>
-    <t>도금 여단·석궁병</t>
-  </si>
-  <si>
-    <t>빙글 얼음 버섯몬</t>
-  </si>
-  <si>
-    <t>도금 여단·선봉 부월수</t>
-  </si>
-  <si>
-    <t>둥실 물 버섯몬</t>
+    <t>有翼冰本真蕈</t>
+  </si>
+  <si>
+    <t>镀金旅团·沙中净水</t>
+  </si>
+  <si>
+    <t>大型水史莱姆</t>
+  </si>
+  <si>
+    <t>镀金旅团·刀舞者</t>
+  </si>
+  <si>
+    <t>伸缩火蕈兽</t>
+  </si>
+  <si>
+    <t>镀金旅团·破阵者</t>
+  </si>
+  <si>
+    <t>伸缩岩蕈兽</t>
+  </si>
+  <si>
+    <t>镀金旅团·鸦喙戟手</t>
+  </si>
+  <si>
+    <t>旋转雷蕈兽</t>
+  </si>
+  <si>
+    <t>镀金旅团·机弩兵</t>
+  </si>
+  <si>
+    <t>旋转冰蕈兽</t>
+  </si>
+  <si>
+    <t>镀金旅团·阵前斧手</t>
+  </si>
+  <si>
+    <t>浮游水蕈兽</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>둥실 풀 버섯몬</t>
-  </si>
-  <si>
-    <t>물 슬라임</t>
+    <t>浮游草蕈兽</t>
+  </si>
+  <si>
+    <t>水史莱姆</t>
   </si>
   <si>
     <t>9-2 60/180/300 Lv.74</t>
   </si>
   <si>
-    <t>나무방패 츄츄 폭도</t>
-  </si>
-  <si>
-    <t>물의 심연 메이지</t>
-  </si>
-  <si>
-    <t>불도끼 츄츄 폭도</t>
-  </si>
-  <si>
-    <t>풀 츄츄 샤먼</t>
-  </si>
-  <si>
-    <t>돌방패 츄츄 폭도</t>
-  </si>
-  <si>
-    <t>번개도끼 츄츄 폭도</t>
-  </si>
-  <si>
-    <t>거대 화염 슬라임</t>
-  </si>
-  <si>
-    <t>바위 츄츄 샤먼</t>
-  </si>
-  <si>
-    <t>얼음 츄츄 샤먼</t>
-  </si>
-  <si>
-    <t>나무방패 츄츄</t>
-  </si>
-  <si>
-    <t>츄츄 돌격병</t>
-  </si>
-  <si>
-    <t>츄츄 화염 궁수</t>
-  </si>
-  <si>
-    <t>츄츄 얼음 궁수</t>
-  </si>
-  <si>
-    <t>츄츄 번개 궁수</t>
-  </si>
-  <si>
-    <t>츄츄 척탄병</t>
-  </si>
-  <si>
-    <t>빙탄 츄츄족</t>
-  </si>
-  <si>
-    <t>번개탄 츄츄족</t>
+    <t>木盾丘丘暴徒</t>
+  </si>
+  <si>
+    <t>水深渊法师</t>
+  </si>
+  <si>
+    <t>火斧丘丘暴徒</t>
+  </si>
+  <si>
+    <t>草丘丘萨满</t>
+  </si>
+  <si>
+    <t>岩盾丘丘暴徒</t>
+  </si>
+  <si>
+    <t>雷斧丘丘暴徒</t>
+  </si>
+  <si>
+    <t>大型火史莱姆</t>
+  </si>
+  <si>
+    <t>岩丘丘萨满</t>
+  </si>
+  <si>
+    <t>冰丘丘萨满</t>
+  </si>
+  <si>
+    <t>木盾丘丘人</t>
+  </si>
+  <si>
+    <t>冲锋丘丘人</t>
+  </si>
+  <si>
+    <t>火箭丘丘人</t>
+  </si>
+  <si>
+    <t>冰箭丘丘人</t>
+  </si>
+  <si>
+    <t>雷箭丘丘人</t>
+  </si>
+  <si>
+    <t>爆弹丘丘人</t>
+  </si>
+  <si>
+    <t>冰弹丘丘人</t>
+  </si>
+  <si>
+    <t>雷弹丘丘人</t>
   </si>
   <si>
     <t>9-3 180/300/420 Lv.76</t>
   </si>
   <si>
-    <t>뚜벅 물 버섯</t>
-  </si>
-  <si>
-    <t>도금 여단·태양의 서리</t>
-  </si>
-  <si>
-    <t>포롱 풀 버섯</t>
-  </si>
-  <si>
-    <t>도금 여단·낮을 밝히는 번개</t>
+    <t>陆行水本真蕈</t>
+  </si>
+  <si>
+    <t>镀金旅团·炽阳凝冰</t>
+  </si>
+  <si>
+    <t>有翼草本真蕈</t>
+  </si>
+  <si>
+    <t>镀金旅团·白日鸣雷</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>적에게 발산, 촉진 반응 발동 시, 반응으로 발생하는 피해가 75% 증가한다</t>
+    <t>对敌人触发蔓激化、超激化反应时，这些反应带来的伤害提升提高75%。</t>
   </si>
   <si>
     <t>10-1 60/180/300 Lv.80</t>
   </si>
   <si>
-    <t>심해 용 도마뱀·원종</t>
-  </si>
-  <si>
-    <t>거대 번개 슬라임</t>
-  </si>
-  <si>
-    <t>돌연변이 번개 슬라임</t>
-  </si>
-  <si>
-    <t>번개 슬라임</t>
+    <t>深海龙蜥·原种</t>
+  </si>
+  <si>
+    <t>大型雷史莱姆</t>
+  </si>
+  <si>
+    <t>变异雷史莱姆</t>
+  </si>
+  <si>
+    <t>雷史莱姆</t>
   </si>
   <si>
     <t>10-2 60/180/300 Lv.82</t>
   </si>
   <si>
-    <t>해란귀·뇌무</t>
-  </si>
-  <si>
-    <t>번개의 심연 메이지</t>
-  </si>
-  <si>
-    <t>해란귀·염위</t>
-  </si>
-  <si>
-    <t>츄츄 번개왕</t>
+    <t>海乱鬼·雷腾</t>
+  </si>
+  <si>
+    <t>雷深渊法师</t>
+  </si>
+  <si>
+    <t>海乱鬼·炎威</t>
+  </si>
+  <si>
+    <t>丘丘雷兜王</t>
   </si>
   <si>
     <t>10-3 180/300/420 Lv.85</t>
   </si>
   <si>
-    <t>우인단·거울의 여인</t>
-  </si>
-  <si>
-    <t>우인단·번개 치친 술사</t>
-  </si>
-  <si>
-    <t>우인단 선발대·화승총 유격대</t>
-  </si>
-  <si>
-    <t>우인단 선발대·물총 중보병</t>
+    <t>愚人众·藏镜仕女</t>
+  </si>
+  <si>
+    <t>愚人众·雷萤术士</t>
+  </si>
+  <si>
+    <t>愚人众先遣队·火铳游击兵</t>
+  </si>
+  <si>
+    <t>愚人众先遣队·水铳重卫士</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>파티의 모든 캐릭터가 75%의 풀 원소 피해 보너스를 획득한다</t>
+    <t>队伍中所有角色获得75%草元素伤害加成。</t>
   </si>
   <si>
     <t>11-1 3024/3024/3024 Lv.88</t>
   </si>
   <si>
-    <t>도금 여단·마암역사</t>
-  </si>
-  <si>
-    <t>보물 사냥단·분쇄자</t>
-  </si>
-  <si>
-    <t>보물 사냥단·물의 약제사</t>
+    <t>镀金旅团·魔岩役使</t>
+  </si>
+  <si>
+    <t>盗宝团·粉碎者</t>
+  </si>
+  <si>
+    <t>盗宝团·水之药剂师</t>
   </si>
   <si>
     <t>11-2 60/180/300 Lv.90</t>
   </si>
   <si>
-    <t>뚜벅 바위 버섯몬</t>
-  </si>
-  <si>
-    <t>심연 사도·격류</t>
-  </si>
-  <si>
-    <t>성해 날뱀</t>
-  </si>
-  <si>
-    <t>얼음을 짓씹는 새끼 심해 용 도마뱀</t>
-  </si>
-  <si>
-    <t>번개를 삼키는 새끼 심해 용 도마뱀</t>
+    <t>陆行岩本真蕈</t>
+  </si>
+  <si>
+    <t>深渊使徒·激流</t>
+  </si>
+  <si>
+    <t>圣骸飞蛇</t>
+  </si>
+  <si>
+    <t>深海龙蜥幼体·啮冰</t>
+  </si>
+  <si>
+    <t>深海龙蜥幼体·吞雷</t>
   </si>
   <si>
     <t>11-3 180/300/420 Lv.92</t>
   </si>
   <si>
-    <t>번개 나무</t>
-  </si>
-  <si>
-    <t>「노부시·칼잡이」</t>
-  </si>
-  <si>
-    <t>「노부시·방화범」</t>
-  </si>
-  <si>
-    <t>「노부시·잔재주꾼」</t>
+    <t>掣电树</t>
+  </si>
+  <si>
+    <t>野伏·阵刀番</t>
+  </si>
+  <si>
+    <t>野伏·火付番</t>
+  </si>
+  <si>
+    <t>野伏·机巧番</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>이번 층에서는 지맥의 흐름이 완만해진다</t>
+    <t>仅在此层，地脉的涌流平缓通顺。</t>
+  </si>
+  <si>
+    <t>(test)怪物血量提升150%。</t>
   </si>
   <si>
     <t>12-1 180/300/420 Lv.95</t>
   </si>
   <si>
-    <t>유적 드레이크·대지의 수호자</t>
-  </si>
-  <si>
-    <t>우인단 선발대·얼음총 중보병</t>
-  </si>
-  <si>
-    <t>파멸의 유적 가디언</t>
-  </si>
-  <si>
-    <t>유적 가디언</t>
-  </si>
-  <si>
-    <t>화염의 심연 메이지</t>
-  </si>
-  <si>
-    <t>얼음의 심연 메이지</t>
-  </si>
-  <si>
-    <t>얼어붙은 구라구라꽃</t>
-  </si>
-  <si>
-    <t>뜨거운 구라구라꽃</t>
-  </si>
-  <si>
-    <t>전기 구라구라꽃</t>
+    <t>遗迹龙兽·地巡</t>
+  </si>
+  <si>
+    <t>愚人众先遣队·冰铳重卫士</t>
+  </si>
+  <si>
+    <t>遗迹重机</t>
+  </si>
+  <si>
+    <t>遗迹守卫</t>
+  </si>
+  <si>
+    <t>火深渊法师</t>
+  </si>
+  <si>
+    <t>冰深渊法师</t>
+  </si>
+  <si>
+    <t>冰霜骗骗花</t>
+  </si>
+  <si>
+    <t>炽热骗骗花</t>
+  </si>
+  <si>
+    <t>电气骗骗花</t>
   </si>
   <si>
     <t>12-2 180/300/420 Lv.98</t>
   </si>
   <si>
-    <t>성해 붉은 독수리</t>
-  </si>
-  <si>
-    <t>꼭두각시 검귀·고독한 바람</t>
-  </si>
-  <si>
-    <t>성해 독전갈</t>
-  </si>
-  <si>
-    <t>꼭두각시 검귀·흉악한 가면</t>
-  </si>
-  <si>
-    <t>꼭두각시 검귀·흩날리는 서리</t>
+    <t>圣骸赤鹫</t>
+  </si>
+  <si>
+    <t>魔偶剑鬼·孤风</t>
+  </si>
+  <si>
+    <t>圣骸毒蝎</t>
+  </si>
+  <si>
+    <t>魔偶剑鬼·凶面</t>
+  </si>
+  <si>
+    <t>魔偶剑鬼·霜驰</t>
   </si>
   <si>
     <t>12-3 180/300/420 Lv.100</t>
   </si>
   <si>
-    <t>반영구 제어 매트릭스</t>
-  </si>
-  <si>
-    <t>도금 여단·바람 사냥꾼</t>
-  </si>
-  <si>
-    <t>도금 여단·모래의 이야기꾼</t>
-  </si>
-  <si>
-    <t>도금 여단·꽃잎 무용수</t>
+    <t>半永恒统辖矩阵</t>
+  </si>
+  <si>
+    <t>镀金旅团·灵风猎手</t>
+  </si>
+  <si>
+    <t>镀金旅团·炽沙叙事人</t>
+  </si>
+  <si>
+    <t>镀金旅团·叶轮舞者</t>
   </si>
 </sst>
 </file>
@@ -707,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,45 +916,43 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -957,14 +961,14 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -973,14 +977,14 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -989,14 +993,14 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1005,14 +1009,14 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1021,14 +1025,14 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1037,14 +1041,14 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1060,7 +1064,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1068,45 +1072,45 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1115,14 +1119,14 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1138,7 +1142,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1147,14 +1151,14 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1170,7 +1174,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1186,7 +1190,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1202,7 +1206,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1218,7 +1222,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1234,7 +1238,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1250,7 +1254,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1266,7 +1270,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1282,7 +1286,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1298,7 +1302,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1306,45 +1310,45 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1353,14 +1357,14 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1369,51 +1373,53 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1427,7 +1433,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1441,7 +1447,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1454,61 +1460,57 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -1517,14 +1519,14 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -1533,14 +1535,14 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -1549,14 +1551,14 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -1565,14 +1567,14 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -1580,29 +1582,31 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="A60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -1610,31 +1614,29 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -1642,29 +1644,31 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -1672,31 +1676,29 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -1705,14 +1707,14 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -1721,65 +1723,69 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1793,7 +1799,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1806,30 +1812,28 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="A76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -1837,46 +1841,42 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
+      <c r="A79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -1885,14 +1885,14 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -1901,14 +1901,14 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -1917,14 +1917,14 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -1933,14 +1933,14 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -1949,14 +1949,14 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -1964,29 +1964,31 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="A86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -1995,14 +1997,14 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -2010,31 +2012,29 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
+      <c r="A89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -2043,14 +2043,14 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -2059,14 +2059,14 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -2074,29 +2074,31 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="A93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -2105,14 +2107,14 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -2120,31 +2122,29 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
+      <c r="A96" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -2153,14 +2153,14 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -2169,14 +2169,14 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -2185,14 +2185,14 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -2201,14 +2201,14 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -2217,79 +2217,85 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+    </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="A104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="F105" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-    </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
+      <c r="A107" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2302,30 +2308,28 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
+      <c r="A109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -2333,15 +2337,13 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -2349,46 +2351,42 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
+      <c r="A113" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -2397,14 +2395,14 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -2413,14 +2411,14 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -2429,14 +2427,14 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -2445,14 +2443,14 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
@@ -2461,14 +2459,14 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -2476,29 +2474,31 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="A120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -2507,14 +2507,14 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -2523,14 +2523,14 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -2538,45 +2538,45 @@
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
+      <c r="A124" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="A125" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -2585,14 +2585,14 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -2601,14 +2601,14 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -2616,31 +2616,29 @@
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
+      <c r="A129" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
@@ -2649,22 +2647,86 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="213">
+  <mergeCells count="217">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -2680,8 +2742,7 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A17:J17"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="F18:J18"/>
     <mergeCell ref="A19:E19"/>
@@ -2698,9 +2759,9 @@
     <mergeCell ref="F24:J24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="F25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="A27:J27"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="F28:J28"/>
     <mergeCell ref="A29:E29"/>
@@ -2727,25 +2788,24 @@
     <mergeCell ref="F39:J39"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="F40:J40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="A42:J42"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="F45:J45"/>
-    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="F46:J46"/>
     <mergeCell ref="A48:J48"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A50:J50"/>
     <mergeCell ref="A51:J51"/>
     <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="F55:J55"/>
     <mergeCell ref="A56:E56"/>
@@ -2756,36 +2816,35 @@
     <mergeCell ref="F58:J58"/>
     <mergeCell ref="A59:E59"/>
     <mergeCell ref="F59:J59"/>
-    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="F60:J60"/>
     <mergeCell ref="A61:E61"/>
     <mergeCell ref="F61:J61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="A62:J62"/>
     <mergeCell ref="A63:E63"/>
     <mergeCell ref="F63:J63"/>
-    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="F64:J64"/>
     <mergeCell ref="A65:E65"/>
     <mergeCell ref="F65:J65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="A66:J66"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="F67:J67"/>
     <mergeCell ref="A68:E68"/>
     <mergeCell ref="F68:J68"/>
     <mergeCell ref="A69:E69"/>
     <mergeCell ref="F69:J69"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="F71:J71"/>
     <mergeCell ref="A73:J73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A75:J75"/>
     <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:E80"/>
     <mergeCell ref="F80:J80"/>
     <mergeCell ref="A81:E81"/>
@@ -2798,26 +2857,26 @@
     <mergeCell ref="F84:J84"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="F85:J85"/>
-    <mergeCell ref="A86:J86"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:J86"/>
     <mergeCell ref="A87:E87"/>
     <mergeCell ref="F87:J87"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="F88:J88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="A89:J89"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="F90:J90"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="F91:J91"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="F92:J92"/>
-    <mergeCell ref="A93:J93"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="F93:J93"/>
     <mergeCell ref="A94:E94"/>
     <mergeCell ref="F94:J94"/>
     <mergeCell ref="A95:E95"/>
     <mergeCell ref="F95:J95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="F96:J96"/>
+    <mergeCell ref="A96:J96"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="F97:J97"/>
     <mergeCell ref="A98:E98"/>
@@ -2830,20 +2889,19 @@
     <mergeCell ref="F101:J101"/>
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="F102:J102"/>
-    <mergeCell ref="A104:J104"/>
-    <mergeCell ref="A105:J105"/>
-    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="F105:J105"/>
     <mergeCell ref="A107:J107"/>
     <mergeCell ref="A108:J108"/>
     <mergeCell ref="A109:J109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="F111:J111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="F112:J112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="F113:J113"/>
+    <mergeCell ref="A110:J110"/>
+    <mergeCell ref="A111:J111"/>
+    <mergeCell ref="A112:J112"/>
+    <mergeCell ref="A113:J113"/>
     <mergeCell ref="A114:E114"/>
     <mergeCell ref="F114:J114"/>
     <mergeCell ref="A115:E115"/>
@@ -2856,28 +2914,36 @@
     <mergeCell ref="F118:J118"/>
     <mergeCell ref="A119:E119"/>
     <mergeCell ref="F119:J119"/>
-    <mergeCell ref="A120:J120"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="F120:J120"/>
     <mergeCell ref="A121:E121"/>
     <mergeCell ref="F121:J121"/>
     <mergeCell ref="A122:E122"/>
     <mergeCell ref="F122:J122"/>
     <mergeCell ref="A123:E123"/>
     <mergeCell ref="F123:J123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="F124:J124"/>
-    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="A124:J124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="F125:J125"/>
     <mergeCell ref="A126:E126"/>
     <mergeCell ref="F126:J126"/>
     <mergeCell ref="A127:E127"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="A128:E128"/>
     <mergeCell ref="F128:J128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="F129:J129"/>
+    <mergeCell ref="A129:J129"/>
     <mergeCell ref="A130:E130"/>
     <mergeCell ref="F130:J130"/>
     <mergeCell ref="A131:E131"/>
     <mergeCell ref="F131:J131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="F132:J132"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="F133:J133"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="F134:J134"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="F135:J135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/res/3.4.xlsx
+++ b/res/3.4.xlsx
@@ -14,33 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="110">
   <si>
     <t>3.4 Abyss Info</t>
   </si>
   <si>
-    <t>2022-12-24</t>
+    <t>2022-12-26</t>
   </si>
   <si>
     <t>Generated via YSRes</t>
   </si>
   <si>
-    <t>丛棘之月</t>
-  </si>
-  <si>
-    <t>处于原激化状态下的敌人的草元素抗性和雷元素抗性降低30%，该效果将在原激化状态结束2秒后移除。</t>
-  </si>
-  <si>
-    <t>郁苍之月</t>
-  </si>
-  <si>
-    <t>角色通过普通攻击、重击、下落攻击、元素战技或元素爆发对敌人造成草元素伤害后，将获得一层「郁苍」效果：角色造成的伤害提升8%。该效果持续6秒，每0.1秒至多触发一次，至多叠加6层，每层独立计时。</t>
-  </si>
-  <si>
-    <t>奋荣之月</t>
-  </si>
-  <si>
-    <t>角色对敌人触发蔓激化、超激化反应时，将在敌人的位置释放冲击波，造成真实伤害。每3秒至多通过这种方式释放一次冲击波。</t>
+    <t>Thorn-Twisted Moon</t>
+  </si>
+  <si>
+    <t>활성 상태인 적의 풀 원소 내성 및 번개 원소 내성이 30% 감소한다. 해당 효과는 활성 상태 종료 후 2초 뒤에 사라진다</t>
+  </si>
+  <si>
+    <t>Verdant Moon</t>
+  </si>
+  <si>
+    <t>일반 공격, 강공격, 낙하 공격, 원소전투 스킬 또는 원소폭발로 적에게 풀 원소 피해를 준 후 「우거진 초목」 효과를 1스택 획득한다: 캐릭터가 가하는 피해가 8% 증가한다. 지속 시간: 6초. 최대 중첩수: 6회. 지속 시간은 독립적으로 계산하며, 0.1초마다 최대 1회 발동된다.</t>
+  </si>
+  <si>
+    <t>Luxuriant Moon</t>
+  </si>
+  <si>
+    <t>캐릭터가 적에게 발산 반응 또는 촉진 반응을 발동 시, 적의 위치에 충격파를 방출해 고정 피해를 준다. 해당 방식으로 충격파를 3초마다 최대 1회 방출할 수 있다</t>
   </si>
   <si>
     <t>9</t>
@@ -55,304 +55,295 @@
     <t>Buff List:</t>
   </si>
   <si>
-    <t>角色触发绽放反应产生的草原核在迸发时造成的伤害提升125%，角色触发烈绽放、超绽放反应造成的伤害提升125%。</t>
-  </si>
-  <si>
-    <t>(test)怪物血量提升100%。</t>
+    <t>캐릭터가 발동한 개화 반응으로 생성된 풀 원핵이 폭발하여 가하는 피해와 발화, 만개 반응으로 인한 피해가 각각 125%씩 증가한다</t>
   </si>
   <si>
     <t>9-1 60/180/300 Lv.72</t>
   </si>
   <si>
-    <t>有翼冰本真蕈</t>
-  </si>
-  <si>
-    <t>镀金旅团·沙中净水</t>
-  </si>
-  <si>
-    <t>大型水史莱姆</t>
-  </si>
-  <si>
-    <t>镀金旅团·刀舞者</t>
-  </si>
-  <si>
-    <t>伸缩火蕈兽</t>
-  </si>
-  <si>
-    <t>镀金旅团·破阵者</t>
-  </si>
-  <si>
-    <t>伸缩岩蕈兽</t>
-  </si>
-  <si>
-    <t>镀金旅团·鸦喙戟手</t>
-  </si>
-  <si>
-    <t>旋转雷蕈兽</t>
-  </si>
-  <si>
-    <t>镀金旅团·机弩兵</t>
-  </si>
-  <si>
-    <t>旋转冰蕈兽</t>
-  </si>
-  <si>
-    <t>镀金旅团·阵前斧手</t>
-  </si>
-  <si>
-    <t>浮游水蕈兽</t>
+    <t>포롱 얼음 버섯</t>
+  </si>
+  <si>
+    <t>도금 여단·사막의 물</t>
+  </si>
+  <si>
+    <t>거대 물 슬라임</t>
+  </si>
+  <si>
+    <t>도금 여단·춤추는 칼</t>
+  </si>
+  <si>
+    <t>쭉쭉 불 버섯몬</t>
+  </si>
+  <si>
+    <t>도금 여단·진의 파괴자</t>
+  </si>
+  <si>
+    <t>쭉쭉 바위 버섯몬</t>
+  </si>
+  <si>
+    <t>도금 여단·까마귀 부리 창병</t>
+  </si>
+  <si>
+    <t>빙글 번개 버섯몬</t>
+  </si>
+  <si>
+    <t>도금 여단·석궁병</t>
+  </si>
+  <si>
+    <t>빙글 얼음 버섯몬</t>
+  </si>
+  <si>
+    <t>도금 여단·선봉 부월수</t>
+  </si>
+  <si>
+    <t>둥실 물 버섯몬</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>浮游草蕈兽</t>
-  </si>
-  <si>
-    <t>水史莱姆</t>
+    <t>둥실 풀 버섯몬</t>
+  </si>
+  <si>
+    <t>물 슬라임</t>
   </si>
   <si>
     <t>9-2 60/180/300 Lv.74</t>
   </si>
   <si>
-    <t>木盾丘丘暴徒</t>
-  </si>
-  <si>
-    <t>水深渊法师</t>
-  </si>
-  <si>
-    <t>火斧丘丘暴徒</t>
-  </si>
-  <si>
-    <t>草丘丘萨满</t>
-  </si>
-  <si>
-    <t>岩盾丘丘暴徒</t>
-  </si>
-  <si>
-    <t>雷斧丘丘暴徒</t>
-  </si>
-  <si>
-    <t>大型火史莱姆</t>
-  </si>
-  <si>
-    <t>岩丘丘萨满</t>
-  </si>
-  <si>
-    <t>冰丘丘萨满</t>
-  </si>
-  <si>
-    <t>木盾丘丘人</t>
-  </si>
-  <si>
-    <t>冲锋丘丘人</t>
-  </si>
-  <si>
-    <t>火箭丘丘人</t>
-  </si>
-  <si>
-    <t>冰箭丘丘人</t>
-  </si>
-  <si>
-    <t>雷箭丘丘人</t>
-  </si>
-  <si>
-    <t>爆弹丘丘人</t>
-  </si>
-  <si>
-    <t>冰弹丘丘人</t>
-  </si>
-  <si>
-    <t>雷弹丘丘人</t>
+    <t>나무방패 츄츄 폭도</t>
+  </si>
+  <si>
+    <t>물의 심연 메이지</t>
+  </si>
+  <si>
+    <t>불도끼 츄츄 폭도</t>
+  </si>
+  <si>
+    <t>풀 츄츄 샤먼</t>
+  </si>
+  <si>
+    <t>돌방패 츄츄 폭도</t>
+  </si>
+  <si>
+    <t>번개도끼 츄츄 폭도</t>
+  </si>
+  <si>
+    <t>거대 화염 슬라임</t>
+  </si>
+  <si>
+    <t>바위 츄츄 샤먼</t>
+  </si>
+  <si>
+    <t>얼음 츄츄 샤먼</t>
+  </si>
+  <si>
+    <t>나무방패 츄츄</t>
+  </si>
+  <si>
+    <t>츄츄 돌격병</t>
+  </si>
+  <si>
+    <t>츄츄 화염 궁수</t>
+  </si>
+  <si>
+    <t>츄츄 얼음 궁수</t>
+  </si>
+  <si>
+    <t>츄츄 번개 궁수</t>
+  </si>
+  <si>
+    <t>츄츄 척탄병</t>
+  </si>
+  <si>
+    <t>빙탄 츄츄족</t>
+  </si>
+  <si>
+    <t>번개탄 츄츄족</t>
   </si>
   <si>
     <t>9-3 180/300/420 Lv.76</t>
   </si>
   <si>
-    <t>陆行水本真蕈</t>
-  </si>
-  <si>
-    <t>镀金旅团·炽阳凝冰</t>
-  </si>
-  <si>
-    <t>有翼草本真蕈</t>
-  </si>
-  <si>
-    <t>镀金旅团·白日鸣雷</t>
+    <t>뚜벅 물 버섯</t>
+  </si>
+  <si>
+    <t>도금 여단·태양의 서리</t>
+  </si>
+  <si>
+    <t>포롱 풀 버섯</t>
+  </si>
+  <si>
+    <t>도금 여단·낮을 밝히는 번개</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>对敌人触发蔓激化、超激化反应时，这些反应带来的伤害提升提高75%。</t>
+    <t>적에게 발산, 촉진 반응 발동 시, 반응으로 발생하는 피해가 75% 증가한다</t>
   </si>
   <si>
     <t>10-1 60/180/300 Lv.80</t>
   </si>
   <si>
-    <t>深海龙蜥·原种</t>
-  </si>
-  <si>
-    <t>大型雷史莱姆</t>
-  </si>
-  <si>
-    <t>变异雷史莱姆</t>
-  </si>
-  <si>
-    <t>雷史莱姆</t>
+    <t>심해 용 도마뱀·원종</t>
+  </si>
+  <si>
+    <t>거대 번개 슬라임</t>
+  </si>
+  <si>
+    <t>돌연변이 번개 슬라임</t>
+  </si>
+  <si>
+    <t>번개 슬라임</t>
   </si>
   <si>
     <t>10-2 60/180/300 Lv.82</t>
   </si>
   <si>
-    <t>海乱鬼·雷腾</t>
-  </si>
-  <si>
-    <t>雷深渊法师</t>
-  </si>
-  <si>
-    <t>海乱鬼·炎威</t>
-  </si>
-  <si>
-    <t>丘丘雷兜王</t>
+    <t>해란귀·뇌무</t>
+  </si>
+  <si>
+    <t>번개의 심연 메이지</t>
+  </si>
+  <si>
+    <t>해란귀·염위</t>
+  </si>
+  <si>
+    <t>츄츄 번개왕</t>
   </si>
   <si>
     <t>10-3 180/300/420 Lv.85</t>
   </si>
   <si>
-    <t>愚人众·藏镜仕女</t>
-  </si>
-  <si>
-    <t>愚人众·雷萤术士</t>
-  </si>
-  <si>
-    <t>愚人众先遣队·火铳游击兵</t>
-  </si>
-  <si>
-    <t>愚人众先遣队·水铳重卫士</t>
+    <t>우인단·거울의 여인</t>
+  </si>
+  <si>
+    <t>우인단·번개 치친 술사</t>
+  </si>
+  <si>
+    <t>우인단 선발대·화승총 유격대</t>
+  </si>
+  <si>
+    <t>우인단 선발대·물총 중보병</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>队伍中所有角色获得75%草元素伤害加成。</t>
+    <t>파티의 모든 캐릭터가 75%의 풀 원소 피해 보너스를 획득한다</t>
   </si>
   <si>
     <t>11-1 3024/3024/3024 Lv.88</t>
   </si>
   <si>
-    <t>镀金旅团·魔岩役使</t>
-  </si>
-  <si>
-    <t>盗宝团·粉碎者</t>
-  </si>
-  <si>
-    <t>盗宝团·水之药剂师</t>
+    <t>도금 여단·마암역사</t>
+  </si>
+  <si>
+    <t>보물 사냥단·분쇄자</t>
+  </si>
+  <si>
+    <t>보물 사냥단·물의 약제사</t>
   </si>
   <si>
     <t>11-2 60/180/300 Lv.90</t>
   </si>
   <si>
-    <t>陆行岩本真蕈</t>
-  </si>
-  <si>
-    <t>深渊使徒·激流</t>
-  </si>
-  <si>
-    <t>圣骸飞蛇</t>
-  </si>
-  <si>
-    <t>深海龙蜥幼体·啮冰</t>
-  </si>
-  <si>
-    <t>深海龙蜥幼体·吞雷</t>
+    <t>뚜벅 바위 버섯몬</t>
+  </si>
+  <si>
+    <t>심연 사도·격류</t>
+  </si>
+  <si>
+    <t>성해 날뱀</t>
+  </si>
+  <si>
+    <t>얼음을 짓씹는 새끼 심해 용 도마뱀</t>
+  </si>
+  <si>
+    <t>번개를 삼키는 새끼 심해 용 도마뱀</t>
   </si>
   <si>
     <t>11-3 180/300/420 Lv.92</t>
   </si>
   <si>
-    <t>掣电树</t>
-  </si>
-  <si>
-    <t>野伏·阵刀番</t>
-  </si>
-  <si>
-    <t>野伏·火付番</t>
-  </si>
-  <si>
-    <t>野伏·机巧番</t>
+    <t>번개 나무</t>
+  </si>
+  <si>
+    <t>「노부시·칼잡이」</t>
+  </si>
+  <si>
+    <t>「노부시·방화범」</t>
+  </si>
+  <si>
+    <t>「노부시·잔재주꾼」</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>仅在此层，地脉的涌流平缓通顺。</t>
-  </si>
-  <si>
-    <t>(test)怪物血量提升150%。</t>
+    <t>이번 층에서는 지맥의 흐름이 완만해진다</t>
   </si>
   <si>
     <t>12-1 180/300/420 Lv.95</t>
   </si>
   <si>
-    <t>遗迹龙兽·地巡</t>
-  </si>
-  <si>
-    <t>愚人众先遣队·冰铳重卫士</t>
-  </si>
-  <si>
-    <t>遗迹重机</t>
-  </si>
-  <si>
-    <t>遗迹守卫</t>
-  </si>
-  <si>
-    <t>火深渊法师</t>
-  </si>
-  <si>
-    <t>冰深渊法师</t>
-  </si>
-  <si>
-    <t>冰霜骗骗花</t>
-  </si>
-  <si>
-    <t>炽热骗骗花</t>
-  </si>
-  <si>
-    <t>电气骗骗花</t>
+    <t>유적 드레이크·대지의 수호자</t>
+  </si>
+  <si>
+    <t>파멸의 유적 가디언</t>
+  </si>
+  <si>
+    <t>유적 가디언</t>
+  </si>
+  <si>
+    <t>화염의 심연 메이지</t>
+  </si>
+  <si>
+    <t>얼음의 심연 메이지</t>
+  </si>
+  <si>
+    <t>얼어붙은 구라구라꽃</t>
+  </si>
+  <si>
+    <t>뜨거운 구라구라꽃</t>
+  </si>
+  <si>
+    <t>전기 구라구라꽃</t>
   </si>
   <si>
     <t>12-2 180/300/420 Lv.98</t>
   </si>
   <si>
-    <t>圣骸赤鹫</t>
-  </si>
-  <si>
-    <t>魔偶剑鬼·孤风</t>
-  </si>
-  <si>
-    <t>圣骸毒蝎</t>
-  </si>
-  <si>
-    <t>魔偶剑鬼·凶面</t>
-  </si>
-  <si>
-    <t>魔偶剑鬼·霜驰</t>
+    <t>성해 붉은 독수리</t>
+  </si>
+  <si>
+    <t>꼭두각시 검귀·고독한 바람</t>
+  </si>
+  <si>
+    <t>성해 독전갈</t>
+  </si>
+  <si>
+    <t>꼭두각시 검귀·흉악한 가면</t>
+  </si>
+  <si>
+    <t>꼭두각시 검귀·흩날리는 서리</t>
   </si>
   <si>
     <t>12-3 180/300/420 Lv.100</t>
   </si>
   <si>
-    <t>半永恒统辖矩阵</t>
-  </si>
-  <si>
-    <t>镀金旅团·灵风猎手</t>
-  </si>
-  <si>
-    <t>镀金旅团·炽沙叙事人</t>
-  </si>
-  <si>
-    <t>镀金旅团·叶轮舞者</t>
+    <t>반영구 제어 매트릭스</t>
+  </si>
+  <si>
+    <t>도금 여단·바람 사냥꾼</t>
+  </si>
+  <si>
+    <t>도금 여단·모래의 이야기꾼</t>
+  </si>
+  <si>
+    <t>도금 여단·꽃잎 무용수</t>
   </si>
 </sst>
 </file>
@@ -713,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,43 +907,45 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -961,14 +954,14 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -977,14 +970,14 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -993,14 +986,14 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1009,14 +1002,14 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1025,14 +1018,14 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1041,14 +1034,14 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1064,7 +1057,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1072,45 +1065,45 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1119,14 +1112,14 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1142,7 +1135,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1151,14 +1144,14 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1174,7 +1167,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1190,7 +1183,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1206,7 +1199,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1222,7 +1215,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1238,7 +1231,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1254,7 +1247,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1270,7 +1263,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1286,7 +1279,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1302,7 +1295,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1310,45 +1303,45 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1357,14 +1350,14 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1373,53 +1366,51 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="A48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1433,7 +1424,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1447,7 +1438,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1460,57 +1451,61 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="A54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -1519,14 +1514,14 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -1535,14 +1530,14 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -1551,14 +1546,14 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -1567,14 +1562,14 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -1582,31 +1577,29 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -1614,29 +1607,31 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="A62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -1644,31 +1639,29 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -1676,29 +1669,31 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -1707,14 +1702,14 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -1723,69 +1718,65 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="A73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1799,7 +1790,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1812,28 +1803,30 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="A76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -1841,42 +1834,46 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="A79" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -1885,14 +1882,14 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -1901,14 +1898,14 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -1917,14 +1914,14 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -1933,14 +1930,14 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -1949,14 +1946,14 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -1964,31 +1961,29 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
+      <c r="A86" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -1997,14 +1992,14 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -2012,29 +2007,31 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="A89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -2043,14 +2040,14 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -2059,14 +2056,14 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -2074,31 +2071,29 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
+      <c r="A93" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -2107,14 +2102,14 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -2122,29 +2117,31 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="A96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -2153,14 +2150,14 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -2169,14 +2166,14 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -2185,14 +2182,14 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -2201,14 +2198,14 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -2217,85 +2214,79 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-    </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="A104" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+    </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="A107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2308,28 +2299,30 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
+      <c r="A109" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="F110" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -2337,13 +2330,15 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -2351,42 +2346,46 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
+      <c r="F112" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="A113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -2395,14 +2394,14 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -2411,14 +2410,14 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -2427,14 +2426,14 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -2442,31 +2441,29 @@
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
+      <c r="A118" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -2475,14 +2472,14 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -2491,14 +2488,14 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -2507,14 +2504,14 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -2522,45 +2519,45 @@
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
+      <c r="A123" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="A124" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
@@ -2569,14 +2566,14 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -2585,14 +2582,14 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -2601,14 +2598,14 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -2616,117 +2613,23 @@
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="A131" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
+      <c r="A129" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="209">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -2742,7 +2645,8 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="F18:J18"/>
     <mergeCell ref="A19:E19"/>
@@ -2759,9 +2663,9 @@
     <mergeCell ref="F24:J24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="F25:J25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:J27"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="F28:J28"/>
     <mergeCell ref="A29:E29"/>
@@ -2788,24 +2692,25 @@
     <mergeCell ref="F39:J39"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="F40:J40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="F42:J42"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="F45:J45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="A47:J47"/>
     <mergeCell ref="A48:J48"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A50:J50"/>
     <mergeCell ref="A51:J51"/>
     <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="F54:J54"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="F55:J55"/>
     <mergeCell ref="A56:E56"/>
@@ -2816,35 +2721,36 @@
     <mergeCell ref="F58:J58"/>
     <mergeCell ref="A59:E59"/>
     <mergeCell ref="F59:J59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="A60:J60"/>
     <mergeCell ref="A61:E61"/>
     <mergeCell ref="F61:J61"/>
-    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F62:J62"/>
     <mergeCell ref="A63:E63"/>
     <mergeCell ref="F63:J63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="A64:J64"/>
     <mergeCell ref="A65:E65"/>
     <mergeCell ref="F65:J65"/>
-    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="F66:J66"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="F67:J67"/>
     <mergeCell ref="A68:E68"/>
     <mergeCell ref="F68:J68"/>
     <mergeCell ref="A69:E69"/>
     <mergeCell ref="F69:J69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:J72"/>
     <mergeCell ref="A73:J73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A75:J75"/>
     <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="F79:J79"/>
     <mergeCell ref="A80:E80"/>
     <mergeCell ref="F80:J80"/>
     <mergeCell ref="A81:E81"/>
@@ -2857,26 +2763,26 @@
     <mergeCell ref="F84:J84"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="F85:J85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="A86:J86"/>
     <mergeCell ref="A87:E87"/>
     <mergeCell ref="F87:J87"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="F88:J88"/>
-    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="F89:J89"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="F90:J90"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="F91:J91"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="F92:J92"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="F93:J93"/>
+    <mergeCell ref="A93:J93"/>
     <mergeCell ref="A94:E94"/>
     <mergeCell ref="F94:J94"/>
     <mergeCell ref="A95:E95"/>
     <mergeCell ref="F95:J95"/>
-    <mergeCell ref="A96:J96"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="F96:J96"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="F97:J97"/>
     <mergeCell ref="A98:E98"/>
@@ -2889,19 +2795,20 @@
     <mergeCell ref="F101:J101"/>
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="F102:J102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="F104:J104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="F105:J105"/>
+    <mergeCell ref="A104:J104"/>
+    <mergeCell ref="A105:J105"/>
+    <mergeCell ref="A106:J106"/>
     <mergeCell ref="A107:J107"/>
     <mergeCell ref="A108:J108"/>
     <mergeCell ref="A109:J109"/>
-    <mergeCell ref="A110:J110"/>
-    <mergeCell ref="A111:J111"/>
-    <mergeCell ref="A112:J112"/>
-    <mergeCell ref="A113:J113"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="F111:J111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="F112:J112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="F113:J113"/>
     <mergeCell ref="A114:E114"/>
     <mergeCell ref="F114:J114"/>
     <mergeCell ref="A115:E115"/>
@@ -2910,8 +2817,7 @@
     <mergeCell ref="F116:J116"/>
     <mergeCell ref="A117:E117"/>
     <mergeCell ref="F117:J117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="A118:J118"/>
     <mergeCell ref="A119:E119"/>
     <mergeCell ref="F119:J119"/>
     <mergeCell ref="A120:E120"/>
@@ -2920,9 +2826,9 @@
     <mergeCell ref="F121:J121"/>
     <mergeCell ref="A122:E122"/>
     <mergeCell ref="F122:J122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="F123:J123"/>
-    <mergeCell ref="A124:J124"/>
+    <mergeCell ref="A123:J123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="F124:J124"/>
     <mergeCell ref="A125:E125"/>
     <mergeCell ref="F125:J125"/>
     <mergeCell ref="A126:E126"/>
@@ -2931,19 +2837,8 @@
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="A128:E128"/>
     <mergeCell ref="F128:J128"/>
-    <mergeCell ref="A129:J129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="F130:J130"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="F131:J131"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="F132:J132"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="F133:J133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="F134:J134"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="F135:J135"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="F129:J129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
